--- a/CasosDePrueba_ReUser.xlsx
+++ b/CasosDePrueba_ReUser.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>Verificar que se requiera inicio de sesión para acceder a ciertas funciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensajes de usabilidad </t>
+  </si>
+  <si>
+    <t>Interaccion</t>
+  </si>
+  <si>
+    <t>Que los usuarios sepan si existe un error o algo que le permita seguir su camino</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -292,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -332,6 +344,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -566,7 +581,7 @@
     <col customWidth="1" min="2" max="2" width="48.43"/>
     <col customWidth="1" min="3" max="3" width="61.43"/>
     <col customWidth="1" min="4" max="4" width="29.0"/>
-    <col customWidth="1" min="5" max="5" width="29.29"/>
+    <col customWidth="1" min="5" max="5" width="78.71"/>
     <col customWidth="1" min="6" max="25" width="10.71"/>
   </cols>
   <sheetData>
@@ -1016,79 +1031,96 @@
       </c>
     </row>
     <row r="23">
-      <c r="C23" s="14"/>
+      <c r="A23" s="17">
+        <v>17.0</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11">
+        <v>45222.0</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24">
       <c r="C24" s="14"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="17"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="17"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="C34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="C40" s="19"/>
+      <c r="A40" s="19"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="18"/>
+      <c r="A42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
     </row>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
